--- a/results/metaphor_confront.xlsx
+++ b/results/metaphor_confront.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adrac\Documents\Uni\Embeddings\metaphor_experiment\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA1C8896-0FB1-4744-96E8-F19F85842B06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6D6088C-5BC1-4175-BE12-AACDAB7F2058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="250" yWindow="1140" windowWidth="18950" windowHeight="8920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metaphor_confront" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -696,7 +709,7 @@
     <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="72">
+  <dxfs count="48">
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
@@ -722,46 +735,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="medium">
@@ -786,46 +759,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="medium">
@@ -874,126 +807,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="medium">
@@ -1018,46 +831,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="medium">
@@ -1082,46 +855,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="medium">
@@ -1227,6 +960,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1247,6 +990,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1362,6 +1115,26 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1462,23 +1235,23 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:P11" totalsRowShown="0">
   <autoFilter ref="A1:P11" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P11">
-    <sortCondition ref="I1:I11"/>
+    <sortCondition ref="A1:A11"/>
   </sortState>
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="metaphor"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="mean_similarity"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="mean_baseline_mixed" dataDxfId="41"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="mean_baseline_saved" dataDxfId="40"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="mean_test_stat_mixed" dataDxfId="35"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="mean_test_stat_saved" dataDxfId="34"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="mean_p_value_mixed" dataDxfId="13"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="mean_p_value_saved" dataDxfId="12"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="amount_pos_sign_mixed" dataDxfId="29"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="amount_pos_sign_saved" dataDxfId="28"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="amount_pos_insign_mixed" dataDxfId="15"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="amount_pos_insign_saved" dataDxfId="14"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="amount_neg_sign_mixed" dataDxfId="7"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="amount_neg_sign_saved" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="mean_baseline_mixed" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="mean_baseline_saved" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="mean_test_stat_mixed" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="mean_test_stat_saved" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="mean_p_value_mixed" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="mean_p_value_saved" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="amount_pos_sign_mixed" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="amount_pos_sign_saved" dataDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="amount_pos_insign_mixed" dataDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="amount_pos_insign_saved" dataDxfId="4"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="amount_neg_sign_mixed" dataDxfId="3"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="amount_neg_sign_saved" dataDxfId="2"/>
     <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="amount_neg_insign_mixed" dataDxfId="1"/>
     <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="amount_neg_insign_saved" dataDxfId="0"/>
   </tableColumns>
@@ -1785,8 +1558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1861,99 +1634,99 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B2">
-        <v>0.21240746765246499</v>
+        <v>0.23763538607985199</v>
       </c>
       <c r="C2" s="1">
-        <v>0.23709980258836799</v>
+        <v>0.23276388532153899</v>
       </c>
       <c r="D2" s="2">
-        <v>0.267440531690818</v>
+        <v>0.26230304949594901</v>
       </c>
       <c r="E2" s="1">
-        <v>-4.8045983099468801</v>
+        <v>-0.79049097383933398</v>
       </c>
       <c r="F2" s="2">
-        <v>-7.5439266071739599</v>
+        <v>-3.29441008794171</v>
       </c>
       <c r="G2" s="1">
-        <v>0.145720937332037</v>
+        <v>0.11937380052907801</v>
       </c>
       <c r="H2" s="2">
-        <v>2.55655415750442E-2</v>
+        <v>2.47916376986408E-2</v>
       </c>
       <c r="I2" s="1">
+        <v>17</v>
+      </c>
+      <c r="J2" s="2">
+        <v>14</v>
+      </c>
+      <c r="K2" s="1">
         <v>12</v>
       </c>
-      <c r="J2" s="2">
-        <v>12</v>
-      </c>
-      <c r="K2" s="1">
-        <v>8</v>
-      </c>
       <c r="L2" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M2" s="1">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="N2" s="2">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O2" s="1">
         <v>7</v>
       </c>
       <c r="P2" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B3">
-        <v>0.211566574240278</v>
+        <v>0.212594119451566</v>
       </c>
       <c r="C3" s="3">
-        <v>0.24311055650868699</v>
+        <v>0.234683527218666</v>
       </c>
       <c r="D3" s="4">
-        <v>0.27104561394725202</v>
+        <v>0.26546656366631899</v>
       </c>
       <c r="E3" s="3">
-        <v>-5.5315728874161803</v>
+        <v>-4.7291785282365204</v>
       </c>
       <c r="F3" s="4">
-        <v>-8.1547180744928802</v>
+        <v>-7.71293842303721</v>
       </c>
       <c r="G3" s="3">
-        <v>8.4695103564496596E-2</v>
+        <v>4.5573303950851199E-2</v>
       </c>
       <c r="H3" s="4">
-        <v>3.39951525360732E-2</v>
+        <v>2.5862431865908302E-2</v>
       </c>
       <c r="I3" s="3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J3" s="4">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K3" s="3">
         <v>4</v>
       </c>
       <c r="L3" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M3" s="3">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N3" s="4">
         <v>48</v>
       </c>
       <c r="O3" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="P3" s="4">
         <v>2</v>
@@ -1961,49 +1734,49 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>0.26031702346393198</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.27247645304460599</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.29824036555716399</v>
+      </c>
+      <c r="E4" s="3">
+        <v>-1.4618466001306201</v>
+      </c>
+      <c r="F4" s="4">
+        <v>-3.4428130320355299</v>
+      </c>
+      <c r="G4" s="3">
+        <v>4.7507700003280397E-2</v>
+      </c>
+      <c r="H4" s="4">
+        <v>4.3655547240142499E-2</v>
+      </c>
+      <c r="I4" s="3">
         <v>20</v>
       </c>
-      <c r="B4">
-        <v>0.184513733159095</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0.23247005522165501</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0.26184565751641398</v>
-      </c>
-      <c r="E4" s="3">
-        <v>-8.9760017539721293</v>
-      </c>
-      <c r="F4" s="4">
-        <v>-12.4802784267628</v>
-      </c>
-      <c r="G4" s="3">
-        <v>1.71632189545055E-2</v>
-      </c>
-      <c r="H4" s="4">
-        <v>1.5037738731429001E-2</v>
-      </c>
-      <c r="I4" s="3">
-        <v>13</v>
-      </c>
       <c r="J4" s="4">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="K4" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4" s="4">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="M4" s="3">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="N4" s="4">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="O4" s="3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="P4" s="4">
         <v>2</v>
@@ -2011,152 +1784,152 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B5">
-        <v>0.212594119451566</v>
+        <v>0.233779688373005</v>
       </c>
       <c r="C5" s="3">
-        <v>0.234683527218666</v>
+        <v>0.24693727113518499</v>
       </c>
       <c r="D5" s="4">
-        <v>0.26546656366631899</v>
+        <v>0.27597224593479203</v>
       </c>
       <c r="E5" s="3">
-        <v>-4.7291785282365204</v>
+        <v>-2.5247769336693602</v>
       </c>
       <c r="F5" s="4">
-        <v>-7.71293842303721</v>
+        <v>-4.7950882141179596</v>
       </c>
       <c r="G5" s="3">
-        <v>4.5573303950851199E-2</v>
+        <v>0.10553513394515</v>
       </c>
       <c r="H5" s="4">
-        <v>2.5862431865908302E-2</v>
+        <v>3.7068257653836201E-2</v>
       </c>
       <c r="I5" s="3">
         <v>16</v>
       </c>
       <c r="J5" s="4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K5" s="3">
+        <v>3</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0</v>
+      </c>
+      <c r="M5" s="3">
+        <v>31</v>
+      </c>
+      <c r="N5" s="4">
+        <v>47</v>
+      </c>
+      <c r="O5" s="3">
+        <v>14</v>
+      </c>
+      <c r="P5" s="4">
         <v>4</v>
-      </c>
-      <c r="L5" s="4">
-        <v>2</v>
-      </c>
-      <c r="M5" s="3">
-        <v>40</v>
-      </c>
-      <c r="N5" s="4">
-        <v>48</v>
-      </c>
-      <c r="O5" s="3">
-        <v>4</v>
-      </c>
-      <c r="P5" s="4">
-        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6">
-        <v>0.233779688373005</v>
+        <v>0.25951996506620101</v>
       </c>
       <c r="C6" s="3">
-        <v>0.24693727113518499</v>
+        <v>0.237745657352391</v>
       </c>
       <c r="D6" s="4">
-        <v>0.27597224593479203</v>
+        <v>0.26571030112479999</v>
       </c>
       <c r="E6" s="3">
-        <v>-2.5247769336693602</v>
+        <v>2.1652329647397401</v>
       </c>
       <c r="F6" s="4">
-        <v>-4.7950882141179596</v>
+        <v>-8.1527705375815194E-3</v>
       </c>
       <c r="G6" s="3">
-        <v>0.10553513394515</v>
+        <v>0.111713779996507</v>
       </c>
       <c r="H6" s="4">
-        <v>3.7068257653836201E-2</v>
+        <v>5.4933151168080799E-2</v>
       </c>
       <c r="I6" s="3">
+        <v>29</v>
+      </c>
+      <c r="J6" s="4">
+        <v>22</v>
+      </c>
+      <c r="K6" s="3">
+        <v>10</v>
+      </c>
+      <c r="L6" s="4">
+        <v>2</v>
+      </c>
+      <c r="M6" s="3">
         <v>16</v>
       </c>
-      <c r="J6" s="4">
-        <v>13</v>
-      </c>
-      <c r="K6" s="3">
-        <v>3</v>
-      </c>
-      <c r="L6" s="4">
-        <v>0</v>
-      </c>
-      <c r="M6" s="3">
-        <v>31</v>
-      </c>
       <c r="N6" s="4">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="O6" s="3">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="P6" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B7">
-        <v>0.23763538607985199</v>
+        <v>0.23474526859877401</v>
       </c>
       <c r="C7" s="3">
-        <v>0.23276388532153899</v>
+        <v>0.238686448293838</v>
       </c>
       <c r="D7" s="4">
-        <v>0.26230304949594901</v>
+        <v>0.26978781070584001</v>
       </c>
       <c r="E7" s="3">
-        <v>-0.79049097383933398</v>
+        <v>-0.94028084083744001</v>
       </c>
       <c r="F7" s="4">
-        <v>-3.29441008794171</v>
+        <v>-3.5596370432946598</v>
       </c>
       <c r="G7" s="3">
-        <v>0.11937380052907801</v>
+        <v>9.61062194219717E-2</v>
       </c>
       <c r="H7" s="4">
-        <v>2.47916376986408E-2</v>
+        <v>2.0650305353640399E-2</v>
       </c>
       <c r="I7" s="3">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J7" s="4">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K7" s="3">
         <v>12</v>
       </c>
       <c r="L7" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" s="3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N7" s="4">
         <v>45</v>
       </c>
       <c r="O7" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P7" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
@@ -2211,49 +1984,49 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B9">
-        <v>0.23474526859877401</v>
+        <v>0.21240746765246499</v>
       </c>
       <c r="C9" s="3">
-        <v>0.238686448293838</v>
+        <v>0.23709980258836799</v>
       </c>
       <c r="D9" s="4">
-        <v>0.26978781070584001</v>
+        <v>0.267440531690818</v>
       </c>
       <c r="E9" s="3">
-        <v>-0.94028084083744001</v>
+        <v>-4.8045983099468801</v>
       </c>
       <c r="F9" s="4">
-        <v>-3.5596370432946598</v>
+        <v>-7.5439266071739599</v>
       </c>
       <c r="G9" s="3">
-        <v>9.61062194219717E-2</v>
+        <v>0.145720937332037</v>
       </c>
       <c r="H9" s="4">
-        <v>2.0650305353640399E-2</v>
+        <v>2.55655415750442E-2</v>
       </c>
       <c r="I9" s="3">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="J9" s="4">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K9" s="3">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="L9" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M9" s="3">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="N9" s="4">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O9" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P9" s="4">
         <v>3</v>
@@ -2261,49 +2034,49 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B10">
-        <v>0.26031702346393198</v>
+        <v>0.184513733159095</v>
       </c>
       <c r="C10" s="3">
-        <v>0.27247645304460599</v>
+        <v>0.23247005522165501</v>
       </c>
       <c r="D10" s="4">
-        <v>0.29824036555716399</v>
+        <v>0.26184565751641398</v>
       </c>
       <c r="E10" s="3">
-        <v>-1.4618466001306201</v>
+        <v>-8.9760017539721293</v>
       </c>
       <c r="F10" s="4">
-        <v>-3.4428130320355299</v>
+        <v>-12.4802784267628</v>
       </c>
       <c r="G10" s="3">
-        <v>4.7507700003280397E-2</v>
+        <v>1.71632189545055E-2</v>
       </c>
       <c r="H10" s="4">
-        <v>4.3655547240142499E-2</v>
+        <v>1.5037738731429001E-2</v>
       </c>
       <c r="I10" s="3">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="J10" s="4">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="K10" s="3">
+        <v>3</v>
+      </c>
+      <c r="L10" s="4">
         <v>2</v>
       </c>
-      <c r="L10" s="4">
-        <v>8</v>
-      </c>
       <c r="M10" s="3">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="N10" s="4">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="O10" s="3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="P10" s="4">
         <v>2</v>
@@ -2311,82 +2084,82 @@
     </row>
     <row r="11" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>0.25951996506620101</v>
+        <v>0.211566574240278</v>
       </c>
       <c r="C11" s="5">
-        <v>0.237745657352391</v>
+        <v>0.24311055650868699</v>
       </c>
       <c r="D11" s="6">
-        <v>0.26571030112479999</v>
+        <v>0.27104561394725202</v>
       </c>
       <c r="E11" s="5">
-        <v>2.1652329647397401</v>
+        <v>-5.5315728874161803</v>
       </c>
       <c r="F11" s="6">
-        <v>-8.1527705375815194E-3</v>
+        <v>-8.1547180744928802</v>
       </c>
       <c r="G11" s="5">
-        <v>0.111713779996507</v>
+        <v>8.4695103564496596E-2</v>
       </c>
       <c r="H11" s="6">
-        <v>5.4933151168080799E-2</v>
+        <v>3.39951525360732E-2</v>
       </c>
       <c r="I11" s="5">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="J11" s="6">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="K11" s="5">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="L11" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M11" s="5">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="N11" s="6">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="O11" s="5">
         <v>9</v>
       </c>
       <c r="P11" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B11">
-    <cfRule type="top10" dxfId="71" priority="54" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="70" priority="53" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="47" priority="54" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="46" priority="53" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C11">
-    <cfRule type="top10" dxfId="69" priority="51" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="68" priority="52" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="45" priority="51" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="44" priority="52" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D11">
-    <cfRule type="top10" dxfId="67" priority="49" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="66" priority="50" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="43" priority="49" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="42" priority="50" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G11">
-    <cfRule type="top10" dxfId="53" priority="36" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="52" priority="35" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="41" priority="36" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="40" priority="35" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H11">
-    <cfRule type="top10" dxfId="51" priority="33" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="50" priority="34" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="39" priority="33" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="38" priority="34" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E11">
-    <cfRule type="top10" dxfId="39" priority="23" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="38" priority="24" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="37" priority="23" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="36" priority="24" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F11">
-    <cfRule type="top10" dxfId="37" priority="21" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="36" priority="22" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="35" priority="21" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="34" priority="22" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I11">
     <cfRule type="top10" dxfId="33" priority="19" percent="1" bottom="1" rank="10"/>
@@ -2397,36 +2170,36 @@
     <cfRule type="top10" dxfId="30" priority="18" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1">
-    <cfRule type="top10" dxfId="23" priority="15" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="22" priority="16" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="29" priority="15" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="28" priority="16" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1">
-    <cfRule type="top10" dxfId="21" priority="13" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="20" priority="14" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="27" priority="13" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="26" priority="14" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K11">
-    <cfRule type="top10" dxfId="19" priority="11" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="18" priority="12" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="25" priority="11" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="24" priority="12" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L11">
-    <cfRule type="top10" dxfId="17" priority="9" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="16" priority="10" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="23" priority="9" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="22" priority="10" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M11">
-    <cfRule type="top10" dxfId="10" priority="7" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="11" priority="8" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="21" priority="7" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="20" priority="8" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N11">
-    <cfRule type="top10" dxfId="9" priority="5" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="8" priority="6" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="19" priority="5" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="18" priority="6" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:O11">
-    <cfRule type="top10" dxfId="4" priority="3" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="5" priority="4" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="17" priority="3" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="16" priority="4" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:P11">
-    <cfRule type="top10" dxfId="3" priority="1" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="2" priority="2" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="15" priority="1" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="14" priority="2" percent="1" rank="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
